--- a/设计图/模块分数比.xlsx
+++ b/设计图/模块分数比.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d5v\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\eRock_db\设计图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5537F9-A394-4ECD-A8F7-2ECE51268C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96520A60-BA6A-4B3B-87D3-CF940C952561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>学习 + 实战</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>根据评价 情况,评 选"篮球 达人", 推荐到更 高一级的 篮球队</t>
-  </si>
-  <si>
-    <t>线上学习 知识测试 技能练习</t>
   </si>
   <si>
     <t>超星平台 erock平台 教师</t>
@@ -200,6 +197,16 @@
   </si>
   <si>
     <t>裁判证加分 D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上学习 知识测试 技能练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1_viewed
+a1_question
+a1_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,27 +302,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -323,20 +330,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -367,7 +377,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3640115</xdr:colOff>
+      <xdr:colOff>1089386</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -668,373 +678,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.52734375" customWidth="1"/>
-    <col min="2" max="2" width="14.3515625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.9375" customWidth="1"/>
-    <col min="5" max="5" width="14.64453125" customWidth="1"/>
-    <col min="6" max="6" width="45.9375" customWidth="1"/>
-    <col min="7" max="7" width="10.46875" customWidth="1"/>
-    <col min="8" max="8" width="11.3515625" customWidth="1"/>
-    <col min="9" max="9" width="10.234375" customWidth="1"/>
+    <col min="4" max="4" width="44.75" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="46" customWidth="1"/>
+    <col min="7" max="7" width="65.125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="55.8" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:10" ht="55.9" customHeight="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" ht="90.95" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="46.9" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" ht="55.9" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="C5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>10</v>
       </c>
-      <c r="G2" s="14">
+      <c r="I5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="54.95" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>10</v>
       </c>
-      <c r="H2" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="90.95" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="I6" s="12"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="54.95" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="46.8" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" ht="64.900000000000006" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="14">
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" ht="54.95" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6">
+        <v>5</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="54.95" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="36" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6">
         <v>20</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="55.8" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="15">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="15">
-        <v>10</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="51.4" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="17">
-        <v>5</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="64.8" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="17">
-        <v>5</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="17">
-        <v>5</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12" t="s">
+      <c r="C12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="17">
-        <v>5</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="36" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="17">
-        <v>20</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="51.3" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="10" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.85" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.75" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="3"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="F11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="F9"/>
-    <mergeCell ref="C10"/>
-    <mergeCell ref="D10"/>
-    <mergeCell ref="E10"/>
-    <mergeCell ref="F10"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="E6"/>
-    <mergeCell ref="F6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="D7"/>
-    <mergeCell ref="E7"/>
-    <mergeCell ref="F7"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="D8"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="D9"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="F1"/>
-    <mergeCell ref="H1"/>
-    <mergeCell ref="I1:I14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="D4"/>
-    <mergeCell ref="E4"/>
     <mergeCell ref="A1:A14"/>
     <mergeCell ref="B1"/>
     <mergeCell ref="C1"/>
@@ -1044,6 +1019,58 @@
     <mergeCell ref="C11"/>
     <mergeCell ref="D11"/>
     <mergeCell ref="E11"/>
+    <mergeCell ref="F1"/>
+    <mergeCell ref="I1"/>
+    <mergeCell ref="J1:J14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="D9"/>
+    <mergeCell ref="F9"/>
+    <mergeCell ref="C10"/>
+    <mergeCell ref="D10"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="F10"/>
+    <mergeCell ref="F11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="C14"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/设计图/模块分数比.xlsx
+++ b/设计图/模块分数比.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\eRock_db\设计图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96520A60-BA6A-4B3B-87D3-CF940C952561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8303B247-EFD5-45C4-BB95-25ACDE7915CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="全部" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>学习 + 实战</t>
   </si>
@@ -49,9 +50,6 @@
     <t>超星平台 erock平台 教师</t>
   </si>
   <si>
-    <t>考查学生预习、探究新知情况</t>
-  </si>
-  <si>
     <t>40%</t>
   </si>
   <si>
@@ -61,16 +59,7 @@
     <t>超星平台 erock平台 教师 同伴</t>
   </si>
   <si>
-    <t>考查课中学习情况,思政表现情况, 测评技能体能水平</t>
-  </si>
-  <si>
-    <t>技术练习 体能练习</t>
-  </si>
-  <si>
     <t>erock平台</t>
-  </si>
-  <si>
-    <t>考查学生课外练习任务完成情况</t>
   </si>
   <si>
     <t>erock平台 教师 学生助教</t>
@@ -204,9 +193,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a1_viewed
-a1_question
-a1_result</t>
+    <t>考查学生课外练习任务完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考查学生预习、探究新知情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1 知识测试 答题表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考查课中学习情况,思政表现情况, 测评技能体能水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术练习 体能练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1 A2 A3 技能练习、技能评测评分表
+eRock评分 * 20 / 100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -313,41 +321,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -692,324 +701,359 @@
     <col min="4" max="4" width="44.75" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
-    <col min="7" max="7" width="65.125" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" ht="27.95" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="55.9" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:9" ht="55.9" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="90.95" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="46.9" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="55.9" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="54.95" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="54.95" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2">
-        <v>10</v>
-      </c>
-      <c r="I2" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="90.95" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="64.900000000000006" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>10</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="46.9" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="F8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="55.9" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <v>10</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="54.95" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="54.95" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="54.95" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="36" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="5">
         <v>20</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>10</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="54.95" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" ht="64.900000000000006" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="51.4" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6">
-        <v>5</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="54.95" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6">
-        <v>5</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="54.95" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.85" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="D14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6">
-        <v>5</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="36" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="6">
-        <v>20</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="51.4" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.85" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="F11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="F9"/>
+    <mergeCell ref="C10"/>
+    <mergeCell ref="D10"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="F10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="D9"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="F1"/>
+    <mergeCell ref="H1"/>
+    <mergeCell ref="I1:I14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="E4"/>
     <mergeCell ref="A1:A14"/>
     <mergeCell ref="B1"/>
     <mergeCell ref="C1"/>
@@ -1019,61 +1063,41 @@
     <mergeCell ref="C11"/>
     <mergeCell ref="D11"/>
     <mergeCell ref="E11"/>
-    <mergeCell ref="F1"/>
-    <mergeCell ref="I1"/>
-    <mergeCell ref="J1:J14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="D4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="E6"/>
-    <mergeCell ref="F6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="D7"/>
-    <mergeCell ref="E7"/>
-    <mergeCell ref="F7"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="D8"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="D9"/>
-    <mergeCell ref="F9"/>
-    <mergeCell ref="C10"/>
-    <mergeCell ref="D10"/>
-    <mergeCell ref="E10"/>
-    <mergeCell ref="F10"/>
-    <mergeCell ref="F11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="C14"/>
-    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAEE643-ECE6-496C-BD3A-27A52E2BE674}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="48.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.5">
+      <c r="A10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>